--- a/shop_emotion/신제품보만 BF1126C_positive.xlsx
+++ b/shop_emotion/신제품보만 BF1126C_positive.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>확률</t>
+          <t>평점</t>
         </is>
       </c>
     </row>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92.79813170433044</v>
+        <v>4.639906585216522</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>89.1167938709259</v>
+        <v>4.455839693546295</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>99.92257952690125</v>
+        <v>4.996128976345062</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>99.97953772544861</v>
+        <v>4.99897688627243</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>99.92706179618835</v>
+        <v>4.996353089809418</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>96.93774580955505</v>
+        <v>4.846887290477753</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서\n선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선</t>
+          <t>['선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서\n선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서 높낮이 조절도 가능하고, 손잡이가 있어서 벽에 걸어서 사용 가능하더라고요, 주방에서 음식냄새 빠르게 제거할 때랑, 에어컨 효율 높이기 위해 쓰기도 하고, 빨래 말릴 때도 쓰기 좋아요! 리모컨 있어서 편리하고~ 완충 해놓으면 무선으로도 6시간 연속 사용 가능하네요, 깔끔한 디자인이라서 더 예쁘고 마음에 쏙 들어요!']</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>99.8570442199707</v>
+        <v>4.992852210998535</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>79.18834686279297</v>
+        <v>3.959417343139648</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>99.83607530593872</v>
+        <v>4.991803765296936</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>99.99864101409912</v>
+        <v>4.999932050704956</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에\n더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.\n집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.\n보만 제품의 만족도가 큰데 이번에 구입한 선풍기도 너무 이쁘고, 가볍고!\n소음이 적은데다 착착 접이는 무선선풍기라 활용도가 엄청 좋네요~\n조용한데 아주 시원해요.\n다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.']</t>
+          <t>['더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에\n더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.\n집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.9895453453064</v>
+        <v>4.99947726726532</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>98.73388409614563</v>
+        <v>4.936694204807281</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>80.29011487960815</v>
+        <v>4.014505743980408</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>99.91962313652039</v>
+        <v>4.995981156826019</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>99.87705945968628</v>
+        <v>4.993852972984314</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>99.96234774589539</v>
+        <v>4.998117387294769</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>99.86569285392761</v>
+        <v>4.993284642696381</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>98.56909513473511</v>
+        <v>4.928454756736755</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['집에 도착하자마자 언박싱하고 부모님 퇴근 후 자랑했습니다 ㅋㅋ 디자인 너무 예쁘고 가볍고, 거기에 무선이라니 진짜 너무 좋아요. 평소에는 꽂아두고 사용하다가 전원선을 뽑아도 작동이\n집에 도착하자마자 언</t>
+          <t>['집에 도착하자마자 언박싱하고 부모님 퇴근 후 자랑했습니다 ㅋㅋ 디자인 너무 예쁘고 가볍고, 거기에 무선이라니 진짜 너무 좋아요. 평소에는 꽂아두고 사용하다가 전원선을 뽑아도 작동이\n집에 도착하자마자 언박싱하고 부모님 퇴근 후 자랑했습니다 ㅋㅋ 디자인 너무 예쁘고 가볍고, 거기에 무선이라니 진짜 너무 좋아요. 평소에는 꽂아두고 사용하다가 전원선을 뽑아도 작동이 되니까 누워서 바람 직빵으로 맞을 수 있다는 점이 최고였습니다. 접이식인 거 보여주고, 선을 딱 뽑았는데도 작동되는 걸 아버지 보여드리니 ㅇ0ㅇ이표정됨ㅋㅋㅋ BLDC 모터라 더 마음에 듭니다. 리모컨도 있어서 캠핑 다닐 때 쓰면 딱이겠어요. 추천합니다.']</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>99.90923404693604</v>
+        <v>4.995461702346802</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>91.27518534660339</v>
+        <v>4.56375926733017</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>99.25179481506348</v>
+        <v>4.962589740753174</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['일단 바람이 다른선풍기와는 차원이 다르게 시원해요 에어컨 튼거마냥 시원해요 그리고 키높이가 조절되니까 제일.낮게해서 아기옷장위에 올려서 틀어주고 해요 유</t>
+          <t>['일단 바람이 다른선풍기와는 차원이 다르게 시원해요 에어컨 튼거마냥 시원해요 그리고 키높이가 조절되니까 제일.낮게해서 아기옷장위에 올려서 틀어주고 해요 유선무선 다 가능하고 타이머기\n일단 바람이 다른선풍기와는 차원이 다르게 시원해요 에어컨 튼거마냥 시원해요 그리고 키높이가 조절되니까 제일.낮게해서 아기옷장위에 올려서 틀어주고 해요 유선무선 다 가능하고 타이머기능도 있어서 아기가 아주 시원하게 잘 자요 솔직구매후기.']</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>96.66627645492554</v>
+        <v>4.833313822746277</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>99.87218976020813</v>
+        <v>4.993609488010406</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>98.43526482582092</v>
+        <v>4.921763241291046</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>98.9905834197998</v>
+        <v>4.94952917098999</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>99.96863007545471</v>
+        <v>4.998431503772736</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>99.91916418075562</v>
+        <v>4.995958209037781</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['날이 점점 더워서 휴대용 큰사이즈선풍기 찾다가 주문했는데 실제로받아보니 완전 큼직하구 바람도 강해서너무 좋아요!각도 조절,높이 조절도 내맘대로 되고 걸어 써도 되니까 편해요야외에\n날이 점점 더워서 휴대용 큰사이즈\n선풍기 찾다가 주문했는데 실</t>
+          <t>['날이 점점 더워서 휴대용 큰사이즈선풍기 찾다가 주문했는데 실제로받아보니 완전 큼직하구 바람도 강해서너무 좋아요!각도 조절,높이 조절도 내맘대로 되고 걸어 써도 되니까 편해요야외에\n날이 점점 더워서 휴대용 큰사이즈\n선풍기 찾다가 주문했는데 실제로\n받아보니 완전 큼직하구 바람도 강해서\n너무 좋아요!\n각도 조절,높이 조절도 내맘대로 되고\n걸어 써도 되니까 편해요\n~']</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>99.75587725639343</v>
+        <v>4.987793862819672</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>99.68751072883606</v>
+        <v>4.984375536441803</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>98.83697032928467</v>
+        <v>4.941848516464233</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>99.85341429710388</v>
+        <v>4.992670714855194</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>99.30546879768372</v>
+        <v>4.965273439884186</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>99.9996542930603</v>
+        <v>4.999982714653015</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>99.93639588356018</v>
+        <v>4.996819794178009</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>95.39088010787964</v>
+        <v>4.769544005393982</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>66.6939914226532</v>
+        <v>3.33469957113266</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>99.99867677688599</v>
+        <v>4.999933838844299</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>99.49749112129211</v>
+        <v>4.974874556064606</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>99.83956813812256</v>
+        <v>4.991978406906128</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>99.96674060821533</v>
+        <v>4.998337030410767</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>99.93093609809875</v>
+        <v>4.996546804904938</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>99.78805184364319</v>
+        <v>4.989402592182159</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>81.57464861869812</v>
+        <v>4.078732430934906</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>99.73859190940857</v>
+        <v>4.986929595470428</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>99.81982707977295</v>
+        <v>4.990991353988647</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>99.53644871711731</v>
+        <v>4.976822435855865</v>
       </c>
     </row>
     <row r="48">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>98.9621639251709</v>
+        <v>4.948108196258545</v>
       </c>
     </row>
     <row r="49">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>99.38993453979492</v>
+        <v>4.969496726989746</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>97.26078510284424</v>
+        <v>4.863039255142212</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>99.98056292533875</v>
+        <v>4.999028146266937</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>99.79844093322754</v>
+        <v>4.989922046661377</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>99.8867928981781</v>
+        <v>4.994339644908905</v>
       </c>
     </row>
     <row r="54">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>99.62775111198425</v>
+        <v>4.981387555599213</v>
       </c>
     </row>
     <row r="55">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>99.93890523910522</v>
+        <v>4.996945261955261</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>99.9104380607605</v>
+        <v>4.995521903038025</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>99.45405125617981</v>
+        <v>4.97270256280899</v>
       </c>
     </row>
     <row r="58">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>88.37225437164307</v>
+        <v>4.418612718582153</v>
       </c>
     </row>
     <row r="59">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>99.94010329246521</v>
+        <v>4.99700516462326</v>
       </c>
     </row>
     <row r="60">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>97.7511465549469</v>
+        <v>4.887557327747345</v>
       </c>
     </row>
     <row r="61">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>88.54635953903198</v>
+        <v>4.427317976951599</v>
       </c>
     </row>
     <row r="62">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>99.95827078819275</v>
+        <v>4.997913539409637</v>
       </c>
     </row>
     <row r="63">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>97.74217009544373</v>
+        <v>4.887108504772186</v>
       </c>
     </row>
     <row r="64">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>97.7726936340332</v>
+        <v>4.88863468170166</v>
       </c>
     </row>
     <row r="65">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>99.6276319026947</v>
+        <v>4.981381595134735</v>
       </c>
     </row>
     <row r="66">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>99.86898899078369</v>
+        <v>4.993449449539185</v>
       </c>
     </row>
     <row r="67">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>96.87216281890869</v>
+        <v>4.843608140945435</v>
       </c>
     </row>
     <row r="68">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>90.00676274299622</v>
+        <v>4.500338137149811</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>99.74663257598877</v>
+        <v>4.987331628799438</v>
       </c>
     </row>
     <row r="70">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>99.29955005645752</v>
+        <v>4.964977502822876</v>
       </c>
     </row>
     <row r="71">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>99.28373098373413</v>
+        <v>4.964186549186707</v>
       </c>
     </row>
     <row r="72">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>99.82637763023376</v>
+        <v>4.991318881511688</v>
       </c>
     </row>
     <row r="73">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>99.35857057571411</v>
+        <v>4.967928528785706</v>
       </c>
     </row>
     <row r="74">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>99.99024271965027</v>
+        <v>4.999512135982513</v>
       </c>
     </row>
     <row r="75">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>99.58345293998718</v>
+        <v>4.979172646999359</v>
       </c>
     </row>
     <row r="76">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>99.6824324131012</v>
+        <v>4.98412162065506</v>
       </c>
     </row>
     <row r="77">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>99.53221082687378</v>
+        <v>4.976610541343689</v>
       </c>
     </row>
     <row r="78">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>99.15186762809753</v>
+        <v>4.957593381404877</v>
       </c>
     </row>
     <row r="79">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>99.99606013298035</v>
+        <v>4.999803006649017</v>
       </c>
     </row>
     <row r="80">
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>99.77227449417114</v>
+        <v>4.988613724708557</v>
       </c>
     </row>
     <row r="81">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>98.48484396934509</v>
+        <v>4.924242198467255</v>
       </c>
     </row>
     <row r="82">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>94.04475092887878</v>
+        <v>4.702237546443939</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>99.91965293884277</v>
+        <v>4.995982646942139</v>
       </c>
     </row>
     <row r="84">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>99.957275390625</v>
+        <v>4.99786376953125</v>
       </c>
     </row>
     <row r="85">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>99.76963400840759</v>
+        <v>4.98848170042038</v>
       </c>
     </row>
     <row r="86">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>99.86029863357544</v>
+        <v>4.993014931678772</v>
       </c>
     </row>
     <row r="87">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>98.92880916595459</v>
+        <v>4.946440458297729</v>
       </c>
     </row>
     <row r="88">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>99.73222613334656</v>
+        <v>4.986611306667328</v>
       </c>
     </row>
     <row r="89">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>99.87984895706177</v>
+        <v>4.993992447853088</v>
       </c>
     </row>
     <row r="90">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>97.67968058586121</v>
+        <v>4.88398402929306</v>
       </c>
     </row>
     <row r="91">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>92.88630485534668</v>
+        <v>4.644315242767334</v>
       </c>
     </row>
     <row r="92">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>99.59344863891602</v>
+        <v>4.979672431945801</v>
       </c>
     </row>
     <row r="93">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>98.85651469230652</v>
+        <v>4.942825734615326</v>
       </c>
     </row>
     <row r="94">
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>99.96757507324219</v>
+        <v>4.998378753662109</v>
       </c>
     </row>
     <row r="95">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>98.68850111961365</v>
+        <v>4.934425055980682</v>
       </c>
     </row>
     <row r="96">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>99.91524815559387</v>
+        <v>4.995762407779694</v>
       </c>
     </row>
     <row r="97">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>99.97918009757996</v>
+        <v>4.998959004878998</v>
       </c>
     </row>
     <row r="98">
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>99.49833750724792</v>
+        <v>4.974916875362396</v>
       </c>
     </row>
     <row r="99">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>95.15030980110168</v>
+        <v>4.757515490055084</v>
       </c>
     </row>
     <row r="100">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>99.88758563995361</v>
+        <v>4.994379281997681</v>
       </c>
     </row>
     <row r="101">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>97.53391742706299</v>
+        <v>4.876695871353149</v>
       </c>
     </row>
     <row r="102">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>95.23833990097046</v>
+        <v>4.761916995048523</v>
       </c>
     </row>
     <row r="103">
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>99.23385977745056</v>
+        <v>4.961692988872528</v>
       </c>
     </row>
     <row r="104">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>73.24236035346985</v>
+        <v>3.662118017673492</v>
       </c>
     </row>
     <row r="105">
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>94.15245652198792</v>
+        <v>4.707622826099396</v>
       </c>
     </row>
     <row r="106">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>99.78276491165161</v>
+        <v>4.989138245582581</v>
       </c>
     </row>
     <row r="107">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>97.63492941856384</v>
+        <v>4.881746470928192</v>
       </c>
     </row>
     <row r="108">
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>99.95661377906799</v>
+        <v>4.9978306889534</v>
       </c>
     </row>
     <row r="109">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>97.07276821136475</v>
+        <v>4.853638410568237</v>
       </c>
     </row>
     <row r="110">
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>97.17187285423279</v>
+        <v>4.858593642711639</v>
       </c>
     </row>
     <row r="111">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>97.10636734962463</v>
+        <v>4.855318367481232</v>
       </c>
     </row>
     <row r="112">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>98.89234304428101</v>
+        <v>4.94461715221405</v>
       </c>
     </row>
     <row r="113">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>96.02540135383606</v>
+        <v>4.801270067691803</v>
       </c>
     </row>
     <row r="114">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>97.35393524169922</v>
+        <v>4.867696762084961</v>
       </c>
     </row>
     <row r="115">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>98.79509210586548</v>
+        <v>4.939754605293274</v>
       </c>
     </row>
     <row r="116">
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>98.6530065536499</v>
+        <v>4.932650327682495</v>
       </c>
     </row>
     <row r="117">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>97.96702861785889</v>
+        <v>4.898351430892944</v>
       </c>
     </row>
     <row r="118">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>99.99454617500305</v>
+        <v>4.999727308750153</v>
       </c>
     </row>
     <row r="119">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>99.94586706161499</v>
+        <v>4.99729335308075</v>
       </c>
     </row>
     <row r="120">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>99.56976771354675</v>
+        <v>4.978488385677338</v>
       </c>
     </row>
     <row r="121">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>99.69149231910706</v>
+        <v>4.984574615955353</v>
       </c>
     </row>
     <row r="122">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>99.78360533714294</v>
+        <v>4.989180266857147</v>
       </c>
     </row>
     <row r="123">
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>99.99001622200012</v>
+        <v>4.999500811100006</v>
       </c>
     </row>
     <row r="124">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>99.99654293060303</v>
+        <v>4.999827146530151</v>
       </c>
     </row>
     <row r="125">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>99.98400807380676</v>
+        <v>4.999200403690338</v>
       </c>
     </row>
   </sheetData>
